--- a/huawei_opts/opts.xlsx
+++ b/huawei_opts/opts.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Название</t>
   </si>
   <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -26,6 +32,9 @@
   </si>
   <si>
     <t>Access marking</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>1) Добавляет ко всем неабстрактным классам модификатор final 
@@ -185,16 +194,81 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>вообще хз</t>
+  </si>
+  <si>
+    <t>interdex</t>
+  </si>
+  <si>
+    <t>layout_reachability</t>
+  </si>
+  <si>
+    <t>Помечает все достижимые классы и методы в классах, чтобы они потом не были удалены</t>
+  </si>
+  <si>
+    <t>local_dce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic. Алгоритм описан в /redex/service/local_dce.h
+Определяет записи в регистры, которые потом никогда не будут считаны (см. другие dce оптимизации)
+</t>
+  </si>
+  <si>
+    <t>make_public</t>
+  </si>
+  <si>
+    <t>Делает все возможные объекты public. Для direct методов (?) сначала добавляет модификатор static, а потом уже public</t>
+  </si>
+  <si>
+    <t>merge interface</t>
+  </si>
+  <si>
+    <t>Сливает вместе интерфейсы (методы в классах) с одинаковой реализацией</t>
+  </si>
+  <si>
+    <t>method inline</t>
+  </si>
+  <si>
+    <t>Говорящее название</t>
+  </si>
+  <si>
+    <t>obfuscate</t>
+  </si>
+  <si>
+    <t>Изменяет названия классов, полей, методов на более короткие. Уменьшает использование памяти и делает программу более стойкой к реверс инжинирингу</t>
+  </si>
+  <si>
+    <t>object sensitive dce</t>
+  </si>
+  <si>
+    <t>Помимо определения записей в регистры, которые никогда не будут считаны, находит также объекты, которые во время вызова методов не будут модифицированы. Эта оптимизация удаляет чистые (pure) методы</t>
+  </si>
+  <si>
+    <t>optimize enums</t>
+  </si>
+  <si>
+    <t>Убирает switch map классы в enum-ах. Заменяет enum-ы классами, в которых поля и методы аналогичны енамам. Убирает все возможные методы в енамах. Делает все виртуальные методы в енамах статическими</t>
+  </si>
+  <si>
+    <t>original name</t>
+  </si>
+  <si>
+    <t>Возвращает оригинальные имена, которые были до обфускации</t>
+  </si>
+  <si>
+    <t>Почему это оптимизация?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,6 +276,90 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,13 +373,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -230,6 +381,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,112 +422,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,31 +432,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +552,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,133 +594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,15 +623,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +637,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -641,11 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,157 +728,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,20 +1211,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.85" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.85" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.1916666666667" customWidth="1"/>
-    <col min="2" max="2" width="49.6916666666667" customWidth="1"/>
-    <col min="3" max="3" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="45.3166666666667" customWidth="1"/>
+    <col min="5" max="5" width="55.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:3">
+    <row r="1" ht="33" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,196 +1238,467 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="111" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="111" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="177" customHeight="1" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="177" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="86" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="44" customHeight="1" spans="1:2">
+    <row r="4" ht="86" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="44" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="122" customHeight="1" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="122" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="52" customHeight="1" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="52" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="58" customHeight="1" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="142" customHeight="1" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="142" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="61" customHeight="1" spans="1:5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="29" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="44" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="107" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="64" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="68" customHeight="1" spans="1:5">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" ht="56" customHeight="1" spans="1:5">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="93" customHeight="1" spans="1:5">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="61" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="48" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="47" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="29" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" ht="44" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="107" customHeight="1" spans="1:2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" ht="64" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" ht="68" customHeight="1" spans="1:3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" ht="56" customHeight="1" spans="1:3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" ht="93" customHeight="1" spans="1:3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="34" customHeight="1" spans="1:2">
+    <row r="21" ht="34" customHeight="1" spans="1:5">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:5">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="81" customHeight="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" ht="47" customHeight="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="43" customHeight="1" spans="1:4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1" spans="1:4">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="63" customHeight="1" spans="1:4">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" ht="81" customHeight="1" spans="1:4">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" ht="84" customHeight="1" spans="1:4">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" ht="43" customHeight="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" ht="49" customHeight="1" spans="2:3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/huawei_opts/opts.xlsx
+++ b/huawei_opts/opts.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
-  <si>
-    <t>Название</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Performance</t>
@@ -25,10 +25,10 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Примечания</t>
+    <t>Brief description</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
   <si>
     <t>Access marking</t>
@@ -259,18 +259,311 @@
   <si>
     <t>Почему это оптимизация?</t>
   </si>
+  <si>
+    <t>outliner</t>
+  </si>
+  <si>
+    <t>Explores basic blocks of bytecode for repeating instruction subsequences. If subsequence repeats rarely (0-9 times per block, adjustible parameter), optimization will wrap subsequence into a special class.</t>
+  </si>
+  <si>
+    <t>This oprimization hasn't been finished yet by developers. See their future ideas in /redex/opr/outliner/InstructionSe..er.cpp</t>
+  </si>
+  <si>
+    <t>peephole</t>
+  </si>
+  <si>
+    <t>Replaces each code pattern with another one. Also removes redundant check casts</t>
+  </si>
+  <si>
+    <t>All patterns are described in another table. Redex uses Proguard algorithm of searching patterns</t>
+  </si>
+  <si>
+    <t>print members</t>
+  </si>
+  <si>
+    <t>Prints requested code(method, whole class etc)</t>
+  </si>
+  <si>
+    <t>rebind refs</t>
+  </si>
+  <si>
+    <t>Reduce amount of unique method references using the way we bind method reference at virtual call sites</t>
+  </si>
+  <si>
+    <t>reduce array literals</t>
+  </si>
+  <si>
+    <t>Informative name</t>
+  </si>
+  <si>
+    <t>reduce gotos</t>
+  </si>
+  <si>
+    <t>Simplify switches (drop useless cases, eliminate empty switches e.t.c). In some cases inverts condition and swap branch and goto target. It replaces gotos that eventually simply return by return instructions (similar for throws)</t>
+  </si>
+  <si>
+    <t>Full perfect documentation /redex/opt/reduce-gotos/ReduceGotos.cpp</t>
+  </si>
+  <si>
+    <t>regalloc</t>
+  </si>
+  <si>
+    <t>Works with memory and registers</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>remove api level checks</t>
+  </si>
+  <si>
+    <t>Remove redundant (based on MinSDKVersion) API level checks</t>
+  </si>
+  <si>
+    <t>remove builders</t>
+  </si>
+  <si>
+    <t>Remove trivial builder classes (it is a builder, it doesn't escape stack, has no static methods, has no static fields)</t>
+  </si>
+  <si>
+    <t>what the difference with "builder pattern" opts ???</t>
+  </si>
+  <si>
+    <t>remove empty classes</t>
+  </si>
+  <si>
+    <t>remove gotos</t>
+  </si>
+  <si>
+    <t>﻿A blocks B and C can be merged together if and only if
+1) B jumps to C unconditionally
+2) C's only predecessor is B
+3) B and C both point to the same catch handler
+If current_block (B) has a mergable child (C), return C. Otherwise, return nullptr</t>
+  </si>
+  <si>
+    <t>remove interfaces</t>
+  </si>
+  <si>
+    <t>Removes a hierarhcy of interfaces extending each others by replacing each invoke-interface site with a generated dispatch stub that models the interface call semantic at bytecode level</t>
+  </si>
+  <si>
+    <t>remove nullcheck string arg</t>
+  </si>
+  <si>
+    <t>Kotlin has null safety checks which adds runtime assertions. This opt modifies calls to these assertions to a generated wrapper method calls.</t>
+  </si>
+  <si>
+    <t>remove recursive locks</t>
+  </si>
+  <si>
+    <t>The opt attempts to remove recursive locks which may for example be exposed by inlining of synchronized methods.</t>
+  </si>
+  <si>
+    <t>remove redundant check casts</t>
+  </si>
+  <si>
+    <t>remove uninstantiables</t>
+  </si>
+  <si>
+    <t>Looks for mentions of classes that have no constructors and use the fact they can't be instantiated to simplify those mentions.</t>
+  </si>
+  <si>
+    <t>remove unreachable</t>
+  </si>
+  <si>
+    <t>removes unreachable instructions</t>
+  </si>
+  <si>
+    <t>remove unused args</t>
+  </si>
+  <si>
+    <t>The opt finds method arguments that are not live in the method body, removes those unused arguments from the method signature, and removes the corresponding argument registers from invocations of that method.</t>
+  </si>
+  <si>
+    <t>remove unused fields</t>
+  </si>
+  <si>
+    <t>This pass identifies fields that are never read from and deletes all writes to them</t>
+  </si>
+  <si>
+    <t>rename classes</t>
+  </si>
+  <si>
+    <t>rename classes (obfuscation)</t>
+  </si>
+  <si>
+    <t>Make it clear!</t>
+  </si>
+  <si>
+    <t>reorder interfaces</t>
+  </si>
+  <si>
+    <t>This pass reorders Interface list for each class to improve the linear walk of this list when there is an invocation of a function defined in one of these Interfaces.</t>
+  </si>
+  <si>
+    <t>resolve refs</t>
+  </si>
+  <si>
+    <t>The ref can point to a class where the field/method is not actually defined. The motivation of this opt is to resolve all method/field references to its definition in the most accurate way possible</t>
+  </si>
+  <si>
+    <t>Helps for further optimizations</t>
+  </si>
+  <si>
+    <t>result propagation</t>
+  </si>
+  <si>
+    <t>1) Identifies all methods which always return one of their incoming parameters. 
+2) Turns all move-result-... into move instructions if the result of an invoke instruction can be predicted using the information computed in the first step.</t>
+  </si>
+  <si>
+    <t>shorten srcstrings</t>
+  </si>
+  <si>
+    <t>shorten names of source files (???)</t>
+  </si>
+  <si>
+    <t>simplify cfg</t>
+  </si>
+  <si>
+    <t>simlifies control flow graph (CFG)</t>
+  </si>
+  <si>
+    <t>singleimpl</t>
+  </si>
+  <si>
+    <t>Analyze and optimize data structures</t>
+  </si>
+  <si>
+    <t>split huge switches</t>
+  </si>
+  <si>
+    <t>A simple split pass that splits whole methods with a large switch that is reachable "easily" from parameters.</t>
+  </si>
+  <si>
+    <t>static relo</t>
+  </si>
+  <si>
+    <t>Relocate static methods that satisfied some conditions</t>
+  </si>
+  <si>
+    <t>stringbuilder-outliner</t>
+  </si>
+  <si>
+    <t>This pass looks for recurring sequences of StringBuilder calls and outlines them</t>
+  </si>
+  <si>
+    <t>string concatenator</t>
+  </si>
+  <si>
+    <t>Concatenate all possible string to avoid their concatenation at runtime</t>
+  </si>
+  <si>
+    <t>strip debug info</t>
+  </si>
+  <si>
+    <t>prints some debug info (?)</t>
+  </si>
+  <si>
+    <t>synth</t>
+  </si>
+  <si>
+    <t>Remove getter methods, wrapper methods and constructors that satisfy some patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test cfg </t>
+  </si>
+  <si>
+    <t>Tests control flow graph. Not opt</t>
+  </si>
+  <si>
+    <t>throw propagation</t>
+  </si>
+  <si>
+    <t>This optimization removes dead code by inserting throw instructions in a special way (documentated)</t>
+  </si>
+  <si>
+    <t>track resources</t>
+  </si>
+  <si>
+    <t>Not opt</t>
+  </si>
+  <si>
+    <t>type analysis</t>
+  </si>
+  <si>
+    <t>A dummy pass that runs the global type analysis only without actually consuming the result. Not opt</t>
+  </si>
+  <si>
+    <t>type erasure</t>
+  </si>
+  <si>
+    <t>Merge and group statuc methods and fields (?)</t>
+  </si>
+  <si>
+    <t>unmark proguard keep</t>
+  </si>
+  <si>
+    <t>This pass unmarks some over-strict proguard keep rule so that we can still remove or optimize them</t>
+  </si>
+  <si>
+    <t>Should be at the very begining</t>
+  </si>
+  <si>
+    <t>unreferenced interfaces</t>
+  </si>
+  <si>
+    <t>Remove internal interfaces that have no reference anywhere in code except that in an 'implements' clause</t>
+  </si>
+  <si>
+    <t>UpCodeMotion</t>
+  </si>
+  <si>
+    <t>This pass eliminates gotos by moving trivial instructions such a consts and moves before a conditional branch</t>
+  </si>
+  <si>
+    <t>uses names</t>
+  </si>
+  <si>
+    <t>Find parameters annotated with @UsesNames and sets the name_used bit on those parameter types and their subclasses.</t>
+  </si>
+  <si>
+    <t>verifier</t>
+  </si>
+  <si>
+    <t>Make some verifications. Not opt</t>
+  </si>
+  <si>
+    <t>vertical merging</t>
+  </si>
+  <si>
+    <t>Merge classes vertically (works with classes enheritance) Full description see in /redex/opt/vertical_merging/VerticalMerging.h</t>
+  </si>
+  <si>
+    <t>virtual merging</t>
+  </si>
+  <si>
+    <t>Removes virtual methods that override other virtual methods, by merging them, under certain conditions (see dedicated documentation)</t>
+  </si>
+  <si>
+    <t>virtual scope</t>
+  </si>
+  <si>
+    <t>Staticize virtual and direct methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,24 +572,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +593,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -326,7 +625,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -335,24 +634,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,38 +647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,11 +669,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -432,13 +731,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,109 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,55 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +922,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,24 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -670,6 +960,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,11 +996,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,17 +1012,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,152 +1027,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,7 +1189,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1211,12 +1519,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.85" outlineLevelCol="4"/>
@@ -1653,7 +1961,7 @@
       <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1667,7 +1975,7 @@
       <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1681,24 +1989,665 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" ht="49" customHeight="1" spans="2:3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="32" ht="74" customHeight="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="33" customHeight="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" ht="33" customHeight="1" spans="1:4">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" ht="52" customHeight="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" ht="68" customHeight="1" spans="1:5">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" ht="53" customHeight="1" spans="1:5">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" ht="35" customHeight="1" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" ht="49" customHeight="1" spans="1:5">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:4">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" ht="102" customHeight="1" spans="1:4">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" ht="58" customHeight="1" spans="1:4">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" ht="43" customHeight="1" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" ht="60" customHeight="1" spans="1:4">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" ht="47" customHeight="1" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" ht="55" customHeight="1" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" ht="31" customHeight="1" spans="1:4">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="74" customHeight="1" spans="1:4">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" ht="31" customHeight="1" spans="1:4">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" ht="32" customHeight="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" ht="68" customHeight="1" spans="1:4">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" ht="72" customHeight="1" spans="1:5">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" ht="71" customHeight="1" spans="1:4">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:4">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" ht="33" customHeight="1" spans="1:5">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" ht="29" customHeight="1" spans="1:4">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" ht="32" customHeight="1" spans="1:4">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" ht="43" customHeight="1" spans="1:4">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" ht="46" customHeight="1" spans="1:4">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:4">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" ht="34" customHeight="1" spans="1:4">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" ht="33" customHeight="1" spans="1:4">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:4">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" ht="43" customHeight="1" spans="1:4">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" ht="24" customHeight="1" spans="1:4">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" ht="36" customHeight="1" spans="1:4">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" ht="25" customHeight="1" spans="1:4">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" ht="40" customHeight="1" spans="1:5">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" ht="43" customHeight="1" spans="1:4">
+      <c r="A70" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" ht="50" customHeight="1" spans="1:4">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" ht="52" customHeight="1" spans="1:4">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" spans="1:4">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" ht="53" customHeight="1" spans="1:4">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" ht="60" customHeight="1" spans="1:4">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" ht="31" customHeight="1" spans="1:4">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/huawei_opts/opts.xlsx
+++ b/huawei_opts/opts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Memory</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Brief description</t>
   </si>
   <si>
@@ -37,51 +40,54 @@
     <t>+</t>
   </si>
   <si>
-    <t>1) Добавляет ко всем неабстрактным классам модификатор final 
-2) Добавляет ко всем неабстрактным методам модификатор final 
-3) Помечает каждое неволатильное и нефинальное поле в классе как final
-4) Помечает все допустимые методы как private</t>
+    <t>Redex, Proguard</t>
+  </si>
+  <si>
+    <t>1) Marks every non-abstract class as final
+2) Marks every non-abstract method as final
+3) Marks every non-final, non-volatile field as final
+4) Marks every eligible method as private</t>
+  </si>
+  <si>
+    <t>Full documentation and source code for all Redex opts (algorithms, future ideas etc) can be found in /redex/opt/&lt;Name of opt&gt;</t>
   </si>
   <si>
     <t>analyze pure methods</t>
   </si>
   <si>
-    <t>Проверяет, является ли данный метод чистым.
-Если возвращаемое значение чистого метода нигде не используется, вызов такого метода в дальнейшем будет удален (DCE, dead code elimination)
-Лишние вызовы чистого метода с одинаковыми входными данными будут убраны (CSE, common subexpression elimination)</t>
-  </si>
-  <si>
-    <t>Под чистыми (pure) методами будем понимать методы, которые
-1) не взаимодействуют (чтение/запись) с изменяемыми (mutable) объектами. Если метод взаимодействует с объектом, который нигде не используется, то такой метод все равно считаем чистым
-2) детерминированные (в алгоритмическом смысле) и не возвращают аллоцированный в методе объект(ы) (кроме случаев, когда эти объекты нигде не используются)
-3) могут бросать исключения, которые либо обычно не ловятся, либо ловятся без заверешения программы</t>
+    <t>Redex</t>
+  </si>
+  <si>
+    <t>Check if the given methods are pure.
+If their outputs are not used, pure method invocations can be removed by DCE.
+Redundant invocations with same incoming arguments can be eliminated by CSE.</t>
+  </si>
+  <si>
+    <t>Definition of purity is located in /redex/libredex/purity.h</t>
   </si>
   <si>
     <t>AnnoKill</t>
   </si>
   <si>
-    <t>Удаляет допустимые (уточнить) аннотации в коде</t>
-  </si>
-  <si>
-    <t>аннотация - какой-то особый механизм в java (уточнить)</t>
+    <t>Removes all possible annotations</t>
   </si>
   <si>
     <t>Basic block profiling</t>
   </si>
   <si>
-    <t>Собирает информацию о базовых блоках программы</t>
+    <t>Performs basic block profiling for dynamic (runtime) analysis</t>
   </si>
   <si>
     <t>branch prefix hoisting</t>
   </si>
   <si>
-    <t>Убирает общие инструкции для "родственных" ветвей кода (конструкции if и switch), если они не оказывают влияния на выбор ветви в конструкциях.</t>
-  </si>
-  <si>
-    <t>Например:
+    <t>Eliminates sibling branches that begin with identical instructions, (aka prefix hoisting)</t>
+  </si>
+  <si>
+    <t>Example:
 if (condition) { insn_1; insn_2; insn_3 }
 else {insn_1; insn_2; insn_4;}
-Переходит в:
+will be optimized into:
 insn_1; insn_2;
 if (condition) {insn_3;}
 else {insn_4;}</t>
@@ -90,51 +96,46 @@
     <t>bridge</t>
   </si>
   <si>
-    <t xml:space="preserve">Убирает или делает inline bridge методов </t>
-  </si>
-  <si>
-    <t>См. компилятор javac, кто такие bridge методы, откуда они берутся (type erasure) и с чем их едят</t>
-  </si>
-  <si>
-    <t>builder_pattern</t>
-  </si>
-  <si>
-    <t>Находит классы, удовлетворяющие паттерну "строитель" и проводит над ними оптимизации: либо удаляет строителя/частично его методы, либо инлайнит методы в нем</t>
-  </si>
-  <si>
-    <t>Не до конца разобрался</t>
+    <t>This pass removes bridge methods that javac creates to provide argument and return-type covariance.</t>
+  </si>
+  <si>
+    <t>builder pattern</t>
+  </si>
+  <si>
+    <t>Finds builders and optimize them: delete them or partly delete builder's methods or make them inline</t>
+  </si>
+  <si>
+    <t>clarify</t>
   </si>
   <si>
     <t>check breadcrumbs</t>
   </si>
   <si>
-    <t>Используется в самом конце после остальных оптимизаций. Проверяет:
-1) использование удаленных типов
-2) существование ссылок на удаленные методы, поля, типы + всевозможные провисшие ссылки
-3) неправильное обращение к полю объекта (например, помеченного как private в ходе оптимизаций) 
-Проверяет все вышеизложенное в объявлениях, определениях и аннотациях</t>
-  </si>
-  <si>
-    <t>Это проверка, а не оптимизация</t>
+    <t>Use after all opts. Verifies:
+1) usage of deleted types
+2) existence of links to deleted methods, fields, types + many dangling links
+3) Illigal objects usege 
+Check all the stuff in declarations, definitions, annotations</t>
   </si>
   <si>
     <t>check recursion</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверяет наличие рекурсии с глубиной больше установленной (этот параметр зависит от устройства, на котором предполагается исполнение программы)
+    <t xml:space="preserve">This pass tests for self recursion that might cause problems on the device due to massive dex2oat memory usage for self-recursive function
 </t>
   </si>
   <si>
     <t xml:space="preserve">class splitting </t>
   </si>
   <si>
-    <t>Выносит "популярные" статические методы из различных классов в один класс. К нестатическим "популярным" добавляет модификатор static и также выносит</t>
+    <t xml:space="preserve">
+Splits out "popular" static (if not static, add static modifier) methods from different classes and replace them to one special class. </t>
   </si>
   <si>
     <t>constant propagation</t>
   </si>
   <si>
-    <t>Classic. Алгоритм взят из этого исследования https://ntrs.nasa.gov/search.jsp?R=20040081118</t>
+    <t>Classic. See algorithm here https://ntrs.nasa.gov/search.jsp?R=20040081118</t>
   </si>
   <si>
     <t>Copy propagation</t>
@@ -146,118 +147,117 @@
     <t>CSE, common subexpression elimination</t>
   </si>
   <si>
-    <t>dedup_blocks</t>
-  </si>
-  <si>
-    <t>Удаляет повторяющиеся блоки кода в рамках какого-либо метода, оставляя только один, направляя исполнение на него</t>
-  </si>
-  <si>
-    <t>dedup_strings</t>
-  </si>
-  <si>
-    <t>Удаляет повторяющиеся элементы типа string во всех dex файлах, оставляя только в одном, где эта строка используется чаще всего. В остальных dex файлах создает ссылки, либо вспомогательные функции, через которые можно получить строку</t>
+    <t>dedup blocks</t>
+  </si>
+  <si>
+    <t>Removes blocks that are duplicates in a method. If a method has multiple blocks with the same code and the same successors, delete all but one of the blocks. Then, reroute all the predecessors of all the blocks to that canonical block</t>
+  </si>
+  <si>
+    <t>dedup strings</t>
+  </si>
+  <si>
+    <t>Deletes repeating strings across all dexes. Creates links or functions that allows to get deleted string from any plac</t>
   </si>
   <si>
     <t>delinit</t>
   </si>
   <si>
-    <t>Удаляет все, до чего не доберется dead code elimination оптимизация: никогда не достижимые конструкторы, классы, виртуальные методы или поля классов</t>
+    <t>This is not a visitor pattern dead-code eliminator with explicit entry points. Rather it's a delete everything that's never referenced elimnator</t>
   </si>
   <si>
     <t>delsuper</t>
   </si>
   <si>
-    <t>Находит прозрачные оболочки (facebook называет такие классы super) и удаляет их</t>
-  </si>
-  <si>
-    <t>Пример удаляемой прозрачной оболочки:
+    <t>Finds and delete super classes</t>
+  </si>
+  <si>
+    <t>Example of class to be removed:
 void method(int a1, int a2, int a3) {super.method(a1, a2, a3); }</t>
   </si>
   <si>
     <t>evaluate type checks</t>
   </si>
   <si>
-    <t>Оптимизирует использование оператора instanceof. Например, сли заведомо известно, что оператор instanceof возвращает true и явным образом входит в условия if-eqz, if-nez, то его можно опустить</t>
-  </si>
-  <si>
-    <t>В С++, кажется, аналогичного оператора нету</t>
+    <t>Optimize usage of instanceof operator</t>
   </si>
   <si>
     <t>final inline</t>
   </si>
   <si>
-    <t>Делает частиный inline кода (тут не понял, какого конкретно и когда именно). А также заменяет байткод инициализированных статических полей классов с расширенного формата (verbose sequence) на encoded_value формат</t>
+    <t>Partly inline code or mark methods final that they can be inlined or eliminated further. Change bytecode of initialized static fields from verbose sequense format to encoded value</t>
   </si>
   <si>
     <t>instrument</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>вообще хз</t>
+    <t>Performs instrumentation for dynamic (runtime) analysis</t>
   </si>
   <si>
     <t>interdex</t>
   </si>
   <si>
-    <t>layout_reachability</t>
-  </si>
-  <si>
-    <t>Помечает все достижимые классы и методы в классах, чтобы они потом не были удалены</t>
-  </si>
-  <si>
-    <t>local_dce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic. Алгоритм описан в /redex/service/local_dce.h
-Определяет записи в регистры, которые потом никогда не будут считаны (см. другие dce оптимизации)
-</t>
-  </si>
-  <si>
-    <t>make_public</t>
-  </si>
-  <si>
-    <t>Делает все возможные объекты public. Для direct методов (?) сначала добавляет модификатор static, а потом уже public</t>
+    <t>In terms of C/C++ compilers this is some kind of a linker</t>
+  </si>
+  <si>
+    <t>Extra docs here https://fbredex.com/docs/interdex</t>
+  </si>
+  <si>
+    <t>layout reachability</t>
+  </si>
+  <si>
+    <t>Marks all reachable  classes and methods that they will not be deleted further</t>
+  </si>
+  <si>
+    <t>local dce</t>
+  </si>
+  <si>
+    <t>Eliminate dead code using a standard backward dataflow analysis for liveness. Algorithm is here /redex/service/local_dce.h
+Identifies writes to registers whitch will never be used (see other dce opts)</t>
+  </si>
+  <si>
+    <t>make public</t>
+  </si>
+  <si>
+    <t>Makes things public except direct methods. If we want to make direct methods public, we should make them static first and change the related opcodes from invoke-direct to invoke-static</t>
   </si>
   <si>
     <t>merge interface</t>
   </si>
   <si>
-    <t>Сливает вместе интерфейсы (методы в классах) с одинаковой реализацией</t>
+    <t>Merge Interfaces that have same implementors and interface children</t>
   </si>
   <si>
     <t>method inline</t>
   </si>
   <si>
-    <t>Говорящее название</t>
+    <t>Proguard inlines short methods and methods that are only called once</t>
   </si>
   <si>
     <t>obfuscate</t>
   </si>
   <si>
-    <t>Изменяет названия классов, полей, методов на более короткие. Уменьшает использование памяти и делает программу более стойкой к реверс инжинирингу</t>
+    <t>Changes names of classes, fields and methods for shorter ones. Reduce memory usage and make program more resistive against reverse engineering</t>
   </si>
   <si>
     <t>object sensitive dce</t>
   </si>
   <si>
-    <t>Помимо определения записей в регистры, которые никогда не будут считаны, находит также объекты, которые во время вызова методов не будут модифицированы. Эта оптимизация удаляет чистые (pure) методы</t>
+    <t>This pass tries to identify writes to registers and objects that never get read from. Also deletes pure methods. Differs from local dce</t>
   </si>
   <si>
     <t>optimize enums</t>
   </si>
   <si>
-    <t>Убирает switch map классы в enum-ах. Заменяет enum-ы классами, в которых поля и методы аналогичны енамам. Убирает все возможные методы в енамах. Делает все виртуальные методы в енамах статическими</t>
+    <t xml:space="preserve">Removes switch map classes in enums. Changes enums with classes, where fields and methods are similar to enums ones. Removes all possible methods in enums and adds static modifier to all virtual methods in enums. </t>
+  </si>
+  <si>
+    <t>Simplifies enum types to integer constants, whenever possible.</t>
   </si>
   <si>
     <t>original name</t>
   </si>
   <si>
-    <t>Возвращает оригинальные имена, которые были до обфускации</t>
-  </si>
-  <si>
-    <t>Почему это оптимизация?</t>
+    <t>Returns deobfuscated names (names before obfuscation)</t>
   </si>
   <si>
     <t>outliner</t>
@@ -272,10 +272,11 @@
     <t>peephole</t>
   </si>
   <si>
-    <t>Replaces each code pattern with another one. Also removes redundant check casts</t>
-  </si>
-  <si>
-    <t>All patterns are described in another table. Redex uses Proguard algorithm of searching patterns</t>
+    <t>Replaces each code pattern with another one. Also removes redundant check casts (see redex). Redex uses Proguard algorithm of searching patterns and have less</t>
+  </si>
+  <si>
+    <t>All types of patterns and patterns themselves (~600 items) are described in /proguard/base/src/poguard/optimize/peephole/InstructionSequenceConstants.java (list of all patterns)
+Additional info can be found in /proguard/base/src/poguard/optimize/evaluation/EvaluationShrinker.java and /proguard/base/src/poguard/optimize/evaluation/EvaluationSimplifier.java</t>
   </si>
   <si>
     <t>print members</t>
@@ -287,7 +288,7 @@
     <t>rebind refs</t>
   </si>
   <si>
-    <t>Reduce amount of unique method references using the way we bind method reference at virtual call sites</t>
+    <t>Reduces amount of unique method references using the way we bind method reference at virtual call sites</t>
   </si>
   <si>
     <t>reduce array literals</t>
@@ -299,7 +300,7 @@
     <t>reduce gotos</t>
   </si>
   <si>
-    <t>Simplify switches (drop useless cases, eliminate empty switches e.t.c). In some cases inverts condition and swap branch and goto target. It replaces gotos that eventually simply return by return instructions (similar for throws)</t>
+    <t>Simplifis switches (drop useless cases, eliminate empty switches e.t.c). In some cases inverts condition and swap branch and goto target. It replaces gotos that eventually simply return by return instructions (similar for throws)</t>
   </si>
   <si>
     <t>Full perfect documentation /redex/opt/reduce-gotos/ReduceGotos.cpp</t>
@@ -311,25 +312,29 @@
     <t>Works with memory and registers</t>
   </si>
   <si>
-    <t>Complicated</t>
+    <t>Complicated
+Proguard: Optimizes variable allocation on the local variable frame.</t>
   </si>
   <si>
     <t>remove api level checks</t>
   </si>
   <si>
-    <t>Remove redundant (based on MinSDKVersion) API level checks</t>
+    <t>Removes redundant (based on MinSDKVersion) API level checks</t>
   </si>
   <si>
     <t>remove builders</t>
   </si>
   <si>
-    <t>Remove trivial builder classes (it is a builder, it doesn't escape stack, has no static methods, has no static fields)</t>
-  </si>
-  <si>
-    <t>what the difference with "builder pattern" opts ???</t>
+    <t>Removes trivial builder classes (it is a builder, it doesn't escape stack, has no static methods, has no static fields)</t>
+  </si>
+  <si>
+    <t>what's the difference with "builder pattern" opts ???</t>
   </si>
   <si>
     <t>remove empty classes</t>
+  </si>
+  <si>
+    <t>removes empty classes</t>
   </si>
   <si>
     <t>remove gotos</t>
@@ -360,6 +365,9 @@
     <t>The opt attempts to remove recursive locks which may for example be exposed by inlining of synchronized methods.</t>
   </si>
   <si>
+    <t>Proguard: Simplifies tail recursion calls, whenever possible.</t>
+  </si>
+  <si>
     <t>remove redundant check casts</t>
   </si>
   <si>
@@ -418,6 +426,11 @@
 2) Turns all move-result-... into move instructions if the result of an invoke instruction can be predicted using the information computed in the first step.</t>
   </si>
   <si>
+    <t>Propagation in Proguard: 
+1) Propagates the values of method parameters from method invocations to the nvoked methods
+2) Propagates the values of method return values from methods to their nvocations.</t>
+  </si>
+  <si>
     <t>shorten srcstrings</t>
   </si>
   <si>
@@ -472,6 +485,9 @@
     <t>Remove getter methods, wrapper methods and constructors that satisfy some patterns</t>
   </si>
   <si>
+    <t>Extra info here https://fbredex.com/docs/synth</t>
+  </si>
+  <si>
     <t xml:space="preserve">test cfg </t>
   </si>
   <si>
@@ -499,7 +515,7 @@
     <t>type erasure</t>
   </si>
   <si>
-    <t>Merge and group statuc methods and fields (?)</t>
+    <t>Merge and group static methods and fields (?)</t>
   </si>
   <si>
     <t>unmark proguard keep</t>
@@ -551,6 +567,49 @@
   </si>
   <si>
     <t>Staticize virtual and direct methods</t>
+  </si>
+  <si>
+    <t>gson</t>
+  </si>
+  <si>
+    <t>Proguard</t>
+  </si>
+  <si>
+    <t>Optimizes usages of the Gson library, whenever possible. See
+/proguard/base/src/proguard/optimize/gson and /proguard/docs/md/manual for details</t>
+  </si>
+  <si>
+    <t>mark private</t>
+  </si>
+  <si>
+    <t>Mark fields as private whenever possible</t>
+  </si>
+  <si>
+    <t>Maybe "access marking" opt also has it</t>
+  </si>
+  <si>
+    <t>unmarking synchronized</t>
+  </si>
+  <si>
+    <t>Unmarks methods as synchronized, whenever possible</t>
+  </si>
+  <si>
+    <t>Unused param</t>
+  </si>
+  <si>
+    <t>Removes unused method parameters</t>
+  </si>
+  <si>
+    <t>remove exceptions</t>
+  </si>
+  <si>
+    <t>Removes exceptions with empty try blocks and exptions those catch block will never be visited</t>
+  </si>
+  <si>
+    <t>nop remover</t>
+  </si>
+  <si>
+    <t>removes all nop instructions</t>
   </si>
 </sst>
 </file>
@@ -558,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -578,8 +637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +660,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -616,9 +691,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,6 +718,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,6 +752,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -661,66 +780,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -728,6 +787,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -737,181 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +1009,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -960,6 +1045,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,179 +1081,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1159,20 +1218,20 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,19 +1245,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1519,24 +1581,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.85" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.85" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.1916666666667" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="45.3166666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.0666666666667" customWidth="1"/>
     <col min="5" max="5" width="55.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="53.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:5">
+    <row r="1" ht="33" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,58 +1615,71 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="111" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" ht="109" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="177" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="110" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="86" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="44" customHeight="1" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="44" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1612,59 +1688,73 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="122" customHeight="1" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="59" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="52" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="52" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="58" customHeight="1" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" ht="142" customHeight="1" spans="1:5">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="118" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1672,16 +1762,16 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="61" customHeight="1" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1689,187 +1779,230 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1" spans="1:4">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="47" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="1:5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="29" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="29" customHeight="1" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="44" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="14" ht="44" customHeight="1" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="92" customHeight="1" spans="1:5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="107" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="63" customHeight="1" spans="1:5">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="64" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="64" customHeight="1" spans="1:5">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="68" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="53" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" ht="56" customHeight="1" spans="1:5">
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="56" customHeight="1" spans="1:6">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" ht="93" customHeight="1" spans="1:5">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="79" customHeight="1" spans="1:6">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
-        <v>24</v>
+      <c r="F20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="34" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:6">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" ht="38" customHeight="1" spans="1:5">
-      <c r="A22" t="s">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:4">
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:5">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -1877,111 +2010,141 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" ht="81" customHeight="1" spans="1:4">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="81" customHeight="1" spans="1:5">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" ht="47" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:5">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" ht="43" customHeight="1" spans="1:4">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="43" customHeight="1" spans="1:5">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" ht="35" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1" spans="1:6">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" ht="63" customHeight="1" spans="1:4">
+      <c r="F27" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" ht="63" customHeight="1" spans="1:5">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" ht="81" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" ht="81" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" ht="84" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" ht="84" customHeight="1" spans="1:6">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="43" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -1989,50 +2152,56 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" ht="74" customHeight="1" spans="1:5">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" ht="74" customHeight="1" spans="1:6">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" ht="33" customHeight="1" spans="1:5">
+      <c r="F32" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="181" customHeight="1" spans="1:6">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" ht="38" customHeight="1" spans="1:4">
+      <c r="F33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:5">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -2041,272 +2210,332 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" ht="33" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="33" customHeight="1" spans="1:5">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" ht="52" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="52" customHeight="1" spans="1:5">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" ht="68" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" ht="68" customHeight="1" spans="1:6">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" ht="53" customHeight="1" spans="1:5">
+      <c r="F37" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" ht="53" customHeight="1" spans="1:6">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" ht="35" customHeight="1" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="F38" s="6" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="39" ht="35" customHeight="1" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" ht="49" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" ht="49" customHeight="1" spans="1:6">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:4">
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:5">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" ht="102" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" ht="102" customHeight="1" spans="1:5">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" ht="58" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" ht="58" customHeight="1" spans="1:5">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" ht="43" customHeight="1" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" ht="43" customHeight="1" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" ht="60" customHeight="1" spans="1:4">
-      <c r="A45" t="s">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" ht="60" customHeight="1" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" ht="47" customHeight="1" spans="1:4">
-      <c r="A46" s="5" t="s">
-        <v>106</v>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" ht="47" customHeight="1" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" ht="55" customHeight="1" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" ht="55" customHeight="1" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" ht="31" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" ht="31" customHeight="1" spans="1:5">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" ht="74" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" ht="74" customHeight="1" spans="1:5">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" ht="31" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" ht="31" customHeight="1" spans="1:5">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" ht="32" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" ht="32" customHeight="1" spans="1:6">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" ht="68" customHeight="1" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="F51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" ht="68" customHeight="1" spans="1:5">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" ht="72" customHeight="1" spans="1:5">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" ht="72" customHeight="1" spans="1:6">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -2314,340 +2543,547 @@
       <c r="C53" s="3">
         <v>0</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" ht="71" customHeight="1" spans="1:4">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" ht="71" customHeight="1" spans="1:6">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" ht="36" customHeight="1" spans="1:4">
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:5">
       <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" ht="33" customHeight="1" spans="1:6">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="3">
-        <v>0</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" ht="33" customHeight="1" spans="1:5">
-      <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" ht="29" customHeight="1" spans="1:4">
+    </row>
+    <row r="57" ht="29" customHeight="1" spans="1:5">
       <c r="A57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" ht="32" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" ht="32" customHeight="1" spans="1:5">
       <c r="A58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" ht="43" customHeight="1" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" ht="43" customHeight="1" spans="1:5">
       <c r="A59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="8">
+        <v>137</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" ht="46" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" ht="46" customHeight="1" spans="1:5">
       <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" ht="42" customHeight="1" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:5">
       <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" ht="34" customHeight="1" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" ht="34" customHeight="1" spans="1:5">
       <c r="A62" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="8">
-        <v>0</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" ht="33" customHeight="1" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" ht="33" customHeight="1" spans="1:6">
       <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" ht="42" customHeight="1" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:5">
       <c r="A64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" ht="43" customHeight="1" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" ht="43" customHeight="1" spans="1:5">
       <c r="A65" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="8">
-        <v>0</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" ht="24" customHeight="1" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" ht="24" customHeight="1" spans="1:5">
       <c r="A66" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="8">
-        <v>0</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" ht="36" customHeight="1" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" ht="36" customHeight="1" spans="1:5">
       <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="8">
-        <v>0</v>
-      </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" ht="25" customHeight="1" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" ht="25" customHeight="1" spans="1:5">
       <c r="A68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="8">
-        <v>0</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" ht="40" customHeight="1" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" ht="40" customHeight="1" spans="1:6">
       <c r="A69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="8">
-        <v>0</v>
-      </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" ht="43" customHeight="1" spans="1:4">
-      <c r="A70" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="8">
-        <v>0</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" ht="50" customHeight="1" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" ht="43" customHeight="1" spans="1:5">
+      <c r="A70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" ht="50" customHeight="1" spans="1:5">
       <c r="A71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" ht="52" customHeight="1" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" ht="52" customHeight="1" spans="1:5">
       <c r="A72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" ht="35" customHeight="1" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" spans="1:5">
       <c r="A73" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="8">
-        <v>0</v>
-      </c>
-      <c r="C73" s="8">
+        <v>167</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" ht="53" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" ht="53" customHeight="1" spans="1:5">
       <c r="A74" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" ht="60" customHeight="1" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" ht="60" customHeight="1" spans="1:5">
       <c r="A75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" ht="31" customHeight="1" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" ht="31" customHeight="1" spans="1:5">
       <c r="A76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="8">
+        <v>173</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" ht="45" customHeight="1" spans="1:5">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" ht="53" customHeight="1" spans="1:6">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" ht="48" customHeight="1" spans="1:5">
+      <c r="A79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1" spans="1:5">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" ht="40" customHeight="1" spans="1:5">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" ht="29" customHeight="1" spans="1:5">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
